--- a/ShopView/Uploads/Product_Formet (1).xlsx
+++ b/ShopView/Uploads/Product_Formet (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="16275" windowHeight="5970"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -33,56 +33,57 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Bajaj Pulsar</t>
-  </si>
-  <si>
-    <t>135 LS</t>
-  </si>
-  <si>
-    <t>https://www.bajajautofinance.com/uploads/vehicles/Pulsar-135.jpg</t>
-  </si>
-  <si>
-    <t>https://www.bajajautofinance.com/uploads/vehicles/Pulsar-180.png</t>
-  </si>
-  <si>
-    <t>NS 200</t>
-  </si>
-  <si>
-    <t>https://www.bajajautofinance.com/uploads/vehicles/Pulsar-200NS.png</t>
-  </si>
-  <si>
-    <t>Rs 200</t>
-  </si>
-  <si>
-    <t>https://www.bajajautofinance.com/uploads/vehicles/Pulsar-RS200.png</t>
-  </si>
-  <si>
-    <t>220SF</t>
-  </si>
-  <si>
-    <t>https://www.bajajautofinance.com/uploads/vehicles/Pulsar-220F.jpg</t>
-  </si>
-  <si>
-    <t>KTM</t>
-  </si>
-  <si>
-    <t>Duke</t>
+    <t>Oneplus</t>
+  </si>
+  <si>
+    <t>11 pro</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/413u56t+CiL._SY300_SX300_.jpg</t>
+  </si>
+  <si>
+    <t>IQ007</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/4105IiC5tDL._SY300_SX300_.jpg</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>M53</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/81yL2dXKTHL._SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>ROG</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/51+AUhQdgYL.jpg</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/61BG8TlWqpL._SY741_.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,14 +118,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,13 +429,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -456,110 +452,103 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>90000</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>180</v>
-      </c>
-      <c r="C3">
-        <v>100000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>110000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>120000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>120000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>150000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
